--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.60101411309003</v>
+        <v>59.93024697165013</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.86629575181122</v>
+        <v>81.99920784247855</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.3892317362174</v>
+        <v>74.17331853262266</v>
       </c>
       <c r="AD2" t="n">
-        <v>49601.01411309003</v>
+        <v>59930.24697165014</v>
       </c>
       <c r="AE2" t="n">
-        <v>67866.29575181122</v>
+        <v>81999.20784247856</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.165326468789894e-06</v>
+        <v>1.38038895279693e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>61389.23173621741</v>
+        <v>74173.31853262265</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.67379845182739</v>
+        <v>58.00303131038748</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.22939426131862</v>
+        <v>79.36230635198595</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.00399242306209</v>
+        <v>71.78807921946733</v>
       </c>
       <c r="AD3" t="n">
-        <v>47673.79845182739</v>
+        <v>58003.03131038748</v>
       </c>
       <c r="AE3" t="n">
-        <v>65229.39426131862</v>
+        <v>79362.30635198596</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.609095226507103e-06</v>
+        <v>1.455410263101016e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.352430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>59003.9924230621</v>
+        <v>71788.07921946734</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.31806383252868</v>
+        <v>56.3233803303681</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.37441834440489</v>
+        <v>77.06413378015311</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.32605280418296</v>
+        <v>69.70924101238403</v>
       </c>
       <c r="AD2" t="n">
-        <v>46318.06383252868</v>
+        <v>56323.3803303681</v>
       </c>
       <c r="AE2" t="n">
-        <v>63374.4183444049</v>
+        <v>77064.13378015312</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.682295722147883e-06</v>
+        <v>1.503592165592465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.413194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>57326.05280418297</v>
+        <v>69709.24101238402</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.78339029339848</v>
+        <v>64.89884541466478</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.32529558889256</v>
+        <v>88.79746343130078</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.04091650113124</v>
+        <v>80.32275814946151</v>
       </c>
       <c r="AD2" t="n">
-        <v>55783.39029339849</v>
+        <v>64898.84541466477</v>
       </c>
       <c r="AE2" t="n">
-        <v>76325.29558889256</v>
+        <v>88797.46343130078</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.738945097465042e-06</v>
+        <v>1.464374946582896e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.023003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>69040.91650113123</v>
+        <v>80322.7581494615</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.50469147907384</v>
+        <v>64.41261218244689</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.26152640695285</v>
+        <v>88.13217767188435</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.31937371128735</v>
+        <v>79.72096632918914</v>
       </c>
       <c r="AD2" t="n">
-        <v>45504.69147907384</v>
+        <v>64412.61218244689</v>
       </c>
       <c r="AE2" t="n">
-        <v>62261.52640695285</v>
+        <v>88132.17767188435</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.368362622746199e-06</v>
+        <v>1.52453393013314e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>56319.37371128735</v>
+        <v>79720.96632918913</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.73885644160992</v>
+        <v>75.17356417515212</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.00085064195198</v>
+        <v>102.8557869279927</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.4611203350926</v>
+        <v>93.03937498261458</v>
       </c>
       <c r="AD2" t="n">
-        <v>57738.85644160992</v>
+        <v>75173.56417515212</v>
       </c>
       <c r="AE2" t="n">
-        <v>79000.85064195198</v>
+        <v>102855.7869279927</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.980103468649596e-06</v>
+        <v>1.367875380595123e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.480902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>71461.12033509261</v>
+        <v>93039.37498261458</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.6578806161052</v>
+        <v>56.74833576010058</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.8393706593525</v>
+        <v>77.64557654682322</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.74663072275681</v>
+        <v>70.23519169746336</v>
       </c>
       <c r="AD2" t="n">
-        <v>46657.88061610521</v>
+        <v>56748.33576010058</v>
       </c>
       <c r="AE2" t="n">
-        <v>63839.3706593525</v>
+        <v>77645.57654682323</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.662499967491372e-06</v>
+        <v>1.490366840221317e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.398003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>57746.63072275681</v>
+        <v>70235.19169746336</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.2787869964274</v>
+        <v>77.51373796226972</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.47609568087924</v>
+        <v>106.0577159447065</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.60469286504281</v>
+        <v>95.93571638790981</v>
       </c>
       <c r="AD2" t="n">
-        <v>60278.7869964274</v>
+        <v>77513.73796226972</v>
       </c>
       <c r="AE2" t="n">
-        <v>82476.09568087924</v>
+        <v>106057.7159447065</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.368027011762036e-06</v>
+        <v>1.27657314276369e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.904079861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>74604.6928650428</v>
+        <v>95935.71638790981</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.58709375388752</v>
+        <v>55.31609415218175</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.37427283468465</v>
+        <v>75.68592039282937</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.42135977819707</v>
+        <v>68.46256237641138</v>
       </c>
       <c r="AD2" t="n">
-        <v>45587.09375388752</v>
+        <v>55316.09415218175</v>
       </c>
       <c r="AE2" t="n">
-        <v>62374.27283468465</v>
+        <v>75685.92039282937</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.640844600085088e-06</v>
+        <v>1.530357786112519e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>56421.35977819707</v>
+        <v>68462.56237641138</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.16131358989448</v>
+        <v>56.07825393769941</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.15994574710025</v>
+        <v>76.72874103549077</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.13204917055082</v>
+        <v>69.40585768054547</v>
       </c>
       <c r="AD2" t="n">
-        <v>46161.31358989448</v>
+        <v>56078.25393769941</v>
       </c>
       <c r="AE2" t="n">
-        <v>63159.94574710025</v>
+        <v>76728.74103549078</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.653317465454204e-06</v>
+        <v>1.509063005895599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.445746527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>57132.04917055082</v>
+        <v>69405.85768054546</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.12675956388725</v>
+        <v>58.37893354171589</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.84915563807255</v>
+        <v>79.87663236852526</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.56460464385938</v>
+        <v>72.25331868284938</v>
       </c>
       <c r="AD2" t="n">
-        <v>48126.75956388725</v>
+        <v>58378.93354171589</v>
       </c>
       <c r="AE2" t="n">
-        <v>65849.15563807255</v>
+        <v>79876.63236852526</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.430495129751718e-06</v>
+        <v>1.433128297788953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>59564.60464385938</v>
+        <v>72253.31868284938</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.18236482736442</v>
+        <v>57.43453880519306</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.55699309580736</v>
+        <v>78.58446982626006</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.39576428106606</v>
+        <v>71.08447832005605</v>
       </c>
       <c r="AD3" t="n">
-        <v>47182.36482736442</v>
+        <v>57434.53880519306</v>
       </c>
       <c r="AE3" t="n">
-        <v>64556.99309580735</v>
+        <v>78584.46982626006</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.672834572691589e-06</v>
+        <v>1.47432439695066e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.354600694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>58395.76428106605</v>
+        <v>71084.47832005605</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.5572634608563</v>
+        <v>55.25075067658179</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.33345771173971</v>
+        <v>75.59651456676285</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.3844399933016</v>
+        <v>68.38168931690278</v>
       </c>
       <c r="AD2" t="n">
-        <v>45557.2634608563</v>
+        <v>55250.75067658179</v>
       </c>
       <c r="AE2" t="n">
-        <v>62333.45771173971</v>
+        <v>75596.51456676285</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.46053984622784e-06</v>
+        <v>1.525635544441125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.610677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56384.4399933016</v>
+        <v>68381.68931690278</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.79618098947452</v>
+        <v>64.21428113385515</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.66035521469249</v>
+        <v>87.86081238145293</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.68013885737618</v>
+        <v>79.4754997612128</v>
       </c>
       <c r="AD2" t="n">
-        <v>45796.18098947452</v>
+        <v>64214.28113385515</v>
       </c>
       <c r="AE2" t="n">
-        <v>62660.35521469248</v>
+        <v>87860.81238145292</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.046917023778924e-06</v>
+        <v>1.501297502778242e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.860243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>56680.13885737618</v>
+        <v>79475.49976121281</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.34706164564102</v>
+        <v>65.31397380068465</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.09653560045543</v>
+        <v>89.36546040322473</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.73855044843293</v>
+        <v>80.83654628757395</v>
       </c>
       <c r="AD2" t="n">
-        <v>56347.06164564102</v>
+        <v>65313.97380068465</v>
       </c>
       <c r="AE2" t="n">
-        <v>77096.53560045542</v>
+        <v>89365.46040322473</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.438132488095587e-06</v>
+        <v>1.430380460739544e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.200954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>69738.55044843293</v>
+        <v>80836.54628757395</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.68344637202873</v>
+        <v>98.80430576776466</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.8169420104025</v>
+        <v>135.188410089731</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.19511456242169</v>
+        <v>122.2862179689285</v>
       </c>
       <c r="AD2" t="n">
-        <v>73683.44637202873</v>
+        <v>98804.30576776466</v>
       </c>
       <c r="AE2" t="n">
-        <v>100816.9420104025</v>
+        <v>135188.410089731</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.499947952785703e-06</v>
+        <v>1.13441889149462e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.646267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>91195.11456242169</v>
+        <v>122286.2179689285</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.86958883417064</v>
+        <v>55.69456345833732</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.76079506633118</v>
+        <v>76.20375879439854</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.77099287054275</v>
+        <v>68.93097900772571</v>
       </c>
       <c r="AD2" t="n">
-        <v>45869.58883417064</v>
+        <v>55694.56345833732</v>
       </c>
       <c r="AE2" t="n">
-        <v>62760.79506633119</v>
+        <v>76203.75879439854</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.650088730973781e-06</v>
+        <v>1.519786467356065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.469618055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>56770.99287054275</v>
+        <v>68930.97900772571</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.12913488322928</v>
+        <v>57.30179030962414</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.48416153790231</v>
+        <v>78.40283747817246</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.32988366482771</v>
+        <v>70.92018070834726</v>
       </c>
       <c r="AD2" t="n">
-        <v>47129.13488322929</v>
+        <v>57301.79030962414</v>
       </c>
       <c r="AE2" t="n">
-        <v>64484.16153790231</v>
+        <v>78402.83747817246</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.608988770210392e-06</v>
+        <v>1.47204113907282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.391493055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>58329.88366482771</v>
+        <v>70920.18070834727</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.98421356163132</v>
+        <v>57.15686898802617</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.2858737922146</v>
+        <v>78.20454973248474</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.15052022328977</v>
+        <v>70.74081726680932</v>
       </c>
       <c r="AD3" t="n">
-        <v>46984.21356163132</v>
+        <v>57156.86898802617</v>
       </c>
       <c r="AE3" t="n">
-        <v>64285.8737922146</v>
+        <v>78204.54973248474</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.665546318154589e-06</v>
+        <v>1.481711849480415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>58150.52022328977</v>
+        <v>70740.81726680932</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2744687577593</v>
+        <v>125.6030028119802</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.5681960685401</v>
+        <v>171.8555696606812</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3434419174805</v>
+        <v>155.4539152931205</v>
       </c>
       <c r="AD2" t="n">
-        <v>101274.4687577593</v>
+        <v>125603.0028119802</v>
       </c>
       <c r="AE2" t="n">
-        <v>138568.1960685401</v>
+        <v>171855.5696606812</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.225650207363051e-06</v>
+        <v>9.057514688557824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.263020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>125343.4419174805</v>
+        <v>155453.9152931205</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.55813864248662</v>
+        <v>64.22928573807354</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.33465517385659</v>
+        <v>87.88134234290092</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.3855231713147</v>
+        <v>79.49407037195421</v>
       </c>
       <c r="AD2" t="n">
-        <v>45558.13864248662</v>
+        <v>64229.28573807354</v>
       </c>
       <c r="AE2" t="n">
-        <v>62334.65517385659</v>
+        <v>87881.34234290093</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.235950770077453e-06</v>
+        <v>1.517418365630577e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>56385.5231713147</v>
+        <v>79494.07037195421</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.5739627148291</v>
+        <v>55.37306781030298</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.35630636774439</v>
+        <v>75.7638742653712</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.40510800564548</v>
+        <v>68.53307644076678</v>
       </c>
       <c r="AD2" t="n">
-        <v>45573.9627148291</v>
+        <v>55373.06781030298</v>
       </c>
       <c r="AE2" t="n">
-        <v>62356.30636774439</v>
+        <v>75763.8742653712</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552912253940527e-06</v>
+        <v>1.527915356483456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.552083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>56405.10800564548</v>
+        <v>68533.07644076677</v>
       </c>
     </row>
   </sheetData>
